--- a/05-UnitTests/UnitTests.xlsx
+++ b/05-UnitTests/UnitTests.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d004c098af1084b/Documentos/GitHub/OOP9652-BugBusters/05-UnitTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E0AC290-6CA5-413F-BBC9-86900C050582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{2E0AC290-6CA5-413F-BBC9-86900C050582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CC35A8-A864-435C-B31E-19A9196B15B7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0144CC39-DE73-466D-A430-BE94C0D5B0A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0144CC39-DE73-466D-A430-BE94C0D5B0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-Template-01" sheetId="1" r:id="rId1"/>
+    <sheet name="UT-Main Menu-01_x0009_" sheetId="3" r:id="rId2"/>
+    <sheet name="UT-Notes Menu-01_x0009_ (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="79">
   <si>
     <t>Project Name</t>
   </si>
@@ -99,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">Created By: </t>
+  </si>
+  <si>
+    <t>Use Cases Reference</t>
+  </si>
+  <si>
+    <t>UT-Template-01</t>
   </si>
   <si>
     <r>
@@ -106,27 +114,218 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>César Galarza</t>
     </r>
   </si>
   <si>
-    <t>Use Cases Reference</t>
-  </si>
-  <si>
-    <t>UT-Template-01</t>
+    <t>UT-Main Menu-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Created By: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edison Ludeña</t>
+    </r>
+  </si>
+  <si>
+    <t>NetBeans Output Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Exceptions </t>
+  </si>
+  <si>
+    <t>Int Data Entry</t>
+  </si>
+  <si>
+    <t>Displaying Each Option</t>
+  </si>
+  <si>
+    <t>Try &amp; Catch Usability</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test By: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>César Galarza</t>
+    </r>
+  </si>
+  <si>
+    <t>Option 1. Notes</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>Enters into notes menu</t>
+  </si>
+  <si>
+    <t>Entering into notes menu</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Aproved</t>
+  </si>
+  <si>
+    <t>Option 2. Earrings</t>
+  </si>
+  <si>
+    <t>Enters into earring menu</t>
+  </si>
+  <si>
+    <t>Option 3. JSON</t>
+  </si>
+  <si>
+    <t>Enters into json menu</t>
+  </si>
+  <si>
+    <t>Entering into earring menu</t>
+  </si>
+  <si>
+    <t>Entering into json menu</t>
+  </si>
+  <si>
+    <t>Option 4. Exit</t>
+  </si>
+  <si>
+    <t>Complete the execution</t>
+  </si>
+  <si>
+    <t>Exited the program successfully</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Unlist option</t>
+  </si>
+  <si>
+    <t>Invalid option</t>
+  </si>
+  <si>
+    <t>Invalid option, enter again</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>"34"</t>
+  </si>
+  <si>
+    <t>"76569076"</t>
+  </si>
+  <si>
+    <t>"2.2"</t>
+  </si>
+  <si>
+    <t>Invalid data type</t>
+  </si>
+  <si>
+    <t>Mistake, the input isn't an int</t>
+  </si>
+  <si>
+    <t>"192.120.96"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total Test Time: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>"true"</t>
+  </si>
+  <si>
+    <t>"2/4"</t>
+  </si>
+  <si>
+    <t>"12312*0"</t>
+  </si>
+  <si>
+    <t>"Notas"</t>
+  </si>
+  <si>
+    <t>"dos"</t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>UT-Notes Menu-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Exceptions </t>
+  </si>
+  <si>
+    <t>Option 1. Create</t>
+  </si>
+  <si>
+    <t>Create note display</t>
+  </si>
+  <si>
+    <t>Enter the title of the note</t>
+  </si>
+  <si>
+    <t>Option 2. Edit</t>
+  </si>
+  <si>
+    <t>Edit notes display</t>
+  </si>
+  <si>
+    <t>Notes available for editing</t>
+  </si>
+  <si>
+    <t>Option 3. Saw</t>
+  </si>
+  <si>
+    <t>View notes display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,14 +335,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -511,32 +721,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -546,6 +820,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -555,72 +831,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,296 +1153,290 @@
   </sheetPr>
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="32">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="45" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="32">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="32">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="32">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="15">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="15">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="19" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="22" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="42"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
@@ -1246,6 +1453,1140 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190CF5BD-5184-440A-8664-11064E622D85}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B1:H28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="32">
+        <v>3</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="32">
+        <v>4</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
+        <v>5</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
+        <v>6</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="32">
+        <v>7</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
+        <v>8</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="32">
+        <v>9</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="32">
+        <v>10</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="32">
+        <v>11</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="32">
+        <v>12</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="32">
+        <v>13</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="32">
+        <v>14</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32">
+        <v>15</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="42"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A837C4A-B77E-440B-BE24-07158FC78B9A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="32">
+        <v>3</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="32">
+        <v>4</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
+        <v>5</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
+        <v>6</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="32">
+        <v>7</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
+        <v>8</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="32">
+        <v>9</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="32">
+        <v>10</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="32">
+        <v>11</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="32">
+        <v>12</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="32">
+        <v>13</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="32">
+        <v>14</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32">
+        <v>15</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="42"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
